--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_7_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_7_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.467162276944792e-16</v>
+        <v>2.203916674193859e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.86313417929997</v>
+        <v>41.62679280669325</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.941698173477064, 50.784570185122874]</t>
+          <t>[34.25339512596389, 49.0001904874226]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 1.8679740102425804]</t>
+          <t>[1.2264475824825025, 1.603816069400195]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.51671816938756</v>
+        <v>64.25437799752753</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.1520405427234, 62.88139579605172]</t>
+          <t>[59.79663405302932, 68.71212194202573]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.14294294294311</v>
+        <v>18.1452252252254</v>
       </c>
       <c r="X2" t="n">
-        <v>16.48540540540557</v>
+        <v>17.44192192192209</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.80048048048066</v>
+        <v>18.8485285285287</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.467162276944792e-16</v>
+        <v>2.203916674193859e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>35.52416968598588</v>
+        <v>48.54592058412872</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[27.536376243744684, 43.51196312822708]</t>
+          <t>[40.981783575249324, 56.11005759300811]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1886842434588463</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 0.05031579825569299]</t>
+          <t>[-0.3647895373537695, -0.037736848691769076]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1214276336227673</v>
+        <v>0.01598976796917784</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1214276336227673</v>
+        <v>0.01598976796917784</v>
       </c>
       <c r="S3" t="n">
-        <v>60.95685058336115</v>
+        <v>63.34235063271495</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.154865543440465, 65.75883562328184]</t>
+          <t>[58.67971057150177, 68.00499069392814]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6840840840840876</v>
+        <v>0.7300100100100124</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.1824224224224252</v>
+        <v>0.1368768768768761</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.550590590590601</v>
+        <v>1.323143143143149</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_7_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_7_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.203916674193859e-16</v>
+        <v>2.135044278125301e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.62679280669325</v>
+        <v>41.55984795159276</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[34.25339512596389, 49.0001904874226]</t>
+          <t>[34.1973984875579, 48.92229741562762]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.415131825941349</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 1.603816069400195]</t>
+          <t>[1.528342372016656, 1.9057108589343486]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.25437799752753</v>
+        <v>60.34316854265393</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.79663405302932, 68.71212194202573]</t>
+          <t>[55.86738062535461, 64.81895645995326]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.1452252252254</v>
+        <v>17.03447447447464</v>
       </c>
       <c r="X2" t="n">
-        <v>17.44192192192209</v>
+        <v>16.33057057057073</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.8485285285287</v>
+        <v>17.73837837837855</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.203916674193859e-16</v>
+        <v>2.135044278125301e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.54592058412872</v>
+        <v>42.83730178160861</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.981783575249324, 56.11005759300811]</t>
+          <t>[34.864693252024324, 50.809910311192894]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2012631930227693</v>
+        <v>0.3081842643161163</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.3647895373537695, -0.037736848691769076]</t>
+          <t>[0.10692107129334616, 0.5094474573388865]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.01598976796917784</v>
+        <v>0.002779573548075787</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01598976796917784</v>
+        <v>0.002779573548075787</v>
       </c>
       <c r="S3" t="n">
-        <v>63.34235063271495</v>
+        <v>57.2536317276618</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.67971057150177, 68.00499069392814]</t>
+          <t>[52.72648012593212, 61.78078332939149]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7300100100100124</v>
+        <v>21.78628628628642</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1368768768768761</v>
+        <v>21.05243243243256</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.323143143143149</v>
+        <v>22.52014014014028</v>
       </c>
     </row>
   </sheetData>
